--- a/eda_results_table_16052022.xlsx
+++ b/eda_results_table_16052022.xlsx
@@ -910,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -950,12 +950,6 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -963,9 +957,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -991,7 +982,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,6 +1006,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Kép 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7787640" y="0"/>
+          <a:ext cx="7185660" cy="5326380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1301,7 +1358,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1310,7 +1367,7 @@
     <col min="2" max="2" width="14.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1331,64 +1388,64 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="27">
         <f>IFERROR(VLOOKUP(A2,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>3</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="27">
         <f>IFERROR(VLOOKUP(A2,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>4</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="27">
         <f>IFERROR(VLOOKUP(A2,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="18">
         <f t="shared" ref="E2:E29" si="0">AVERAGE(B2:D2)</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="27">
         <f>IFERROR(VLOOKUP(A3,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>4</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="27">
         <f>IFERROR(VLOOKUP(A3,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>7.5</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="27">
         <f>IFERROR(VLOOKUP(A3,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>4.5</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <f t="shared" si="0"/>
         <v>5.333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="27">
         <f>IFERROR(VLOOKUP(A4,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>5</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="27">
         <f>IFERROR(VLOOKUP(A4,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>7.5</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="27">
         <f>IFERROR(VLOOKUP(A4,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>4.5</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <f t="shared" si="0"/>
         <v>5.666666666666667</v>
       </c>
@@ -1397,19 +1454,19 @@
       <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="28">
         <f>IFERROR(VLOOKUP(A5,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>10</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="28">
         <f>IFERROR(VLOOKUP(A5,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>2.5</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="28">
         <f>IFERROR(VLOOKUP(A5,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>4.5</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="20">
         <f t="shared" si="0"/>
         <v>5.666666666666667</v>
       </c>
@@ -1418,19 +1475,19 @@
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="28">
         <f>IFERROR(VLOOKUP(A6,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>10</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="28">
         <f>IFERROR(VLOOKUP(A6,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>2.5</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="28">
         <f>IFERROR(VLOOKUP(A6,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>4.5</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <f t="shared" si="0"/>
         <v>5.666666666666667</v>
       </c>
@@ -1439,19 +1496,19 @@
       <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="28">
         <f>IFERROR(VLOOKUP(A7,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>14</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="28">
         <f>IFERROR(VLOOKUP(A7,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="28">
         <f>IFERROR(VLOOKUP(A7,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>13</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <f t="shared" si="0"/>
         <v>9.3333333333333339</v>
       </c>
@@ -1460,19 +1517,19 @@
       <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="28">
         <f>IFERROR(VLOOKUP(A8,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>14</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="28">
         <f>IFERROR(VLOOKUP(A8,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>11.5</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="28">
         <f>IFERROR(VLOOKUP(A8,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>4.5</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1481,19 +1538,19 @@
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="28">
         <f>IFERROR(VLOOKUP(A9,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>10</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="28">
         <f>IFERROR(VLOOKUP(A9,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>11.5</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="28">
         <f>IFERROR(VLOOKUP(A9,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>9.5</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <f t="shared" si="0"/>
         <v>10.333333333333334</v>
       </c>
@@ -1502,19 +1559,19 @@
       <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="28">
         <f>IFERROR(VLOOKUP(A10,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>16.5</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="28">
         <f>IFERROR(VLOOKUP(A10,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>5</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="28">
         <f>IFERROR(VLOOKUP(A10,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>13</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
@@ -1523,19 +1580,19 @@
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="28">
         <f>IFERROR(VLOOKUP(A11,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>14</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="28">
         <f>IFERROR(VLOOKUP(A11,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>11.5</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="28">
         <f>IFERROR(VLOOKUP(A11,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>9.5</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <f t="shared" si="0"/>
         <v>11.666666666666666</v>
       </c>
@@ -1544,40 +1601,40 @@
       <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="28">
         <f>IFERROR(VLOOKUP(A12,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>1</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="28">
         <f>IFERROR(VLOOKUP(A12,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>14</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="28">
         <f>IFERROR(VLOOKUP(A12,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>22</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <f t="shared" si="0"/>
         <v>12.333333333333334</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="27">
         <f>IFERROR(VLOOKUP(A13,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>2</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="27">
         <f>IFERROR(VLOOKUP(A13,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>16.5</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="27">
         <f>IFERROR(VLOOKUP(A13,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>19.5</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <f t="shared" si="0"/>
         <v>12.666666666666666</v>
       </c>
@@ -1586,19 +1643,19 @@
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="28">
         <f>IFERROR(VLOOKUP(A14,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>23</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="28">
         <f>IFERROR(VLOOKUP(A14,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>7.5</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="28">
         <f>IFERROR(VLOOKUP(A14,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>9.5</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <f t="shared" si="0"/>
         <v>13.333333333333334</v>
       </c>
@@ -1607,19 +1664,19 @@
       <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="28">
         <f>IFERROR(VLOOKUP(A15,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>20</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="28">
         <f>IFERROR(VLOOKUP(A15,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>19</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="28">
         <f>IFERROR(VLOOKUP(A15,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>4.5</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
@@ -1628,19 +1685,19 @@
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="28">
         <f>IFERROR(VLOOKUP(A16,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>20</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="28">
         <f>IFERROR(VLOOKUP(A16,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>7.5</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="28">
         <f>IFERROR(VLOOKUP(A16,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>16.5</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <f t="shared" si="0"/>
         <v>14.666666666666666</v>
       </c>
@@ -1649,19 +1706,19 @@
       <c r="A17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="28">
         <f>IFERROR(VLOOKUP(A17,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>6.5</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="28">
         <f>IFERROR(VLOOKUP(A17,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>22.5</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="28">
         <f>IFERROR(VLOOKUP(A17,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>16.5</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="19">
         <f t="shared" si="0"/>
         <v>15.166666666666666</v>
       </c>
@@ -1670,19 +1727,19 @@
       <c r="A18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="28">
         <f>IFERROR(VLOOKUP(A18,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>6.5</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="28">
         <f>IFERROR(VLOOKUP(A18,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>22.5</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="28">
         <f>IFERROR(VLOOKUP(A18,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>16.5</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="19">
         <f t="shared" si="0"/>
         <v>15.166666666666666</v>
       </c>
@@ -1691,19 +1748,19 @@
       <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="28">
         <f>IFERROR(VLOOKUP(A19,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>10</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="28">
         <f>IFERROR(VLOOKUP(A19,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>16.5</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="28">
         <f>IFERROR(VLOOKUP(A19,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>19.5</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="19">
         <f t="shared" si="0"/>
         <v>15.333333333333334</v>
       </c>
@@ -1712,19 +1769,19 @@
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="28">
         <f>IFERROR(VLOOKUP(A20,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>18</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="28">
         <f>IFERROR(VLOOKUP(A20,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>16.5</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="28">
         <f>IFERROR(VLOOKUP(A20,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>13</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="19">
         <f t="shared" si="0"/>
         <v>15.833333333333334</v>
       </c>
@@ -1733,19 +1790,19 @@
       <c r="A21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="28">
         <f>IFERROR(VLOOKUP(A21,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>22</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="28">
         <f>IFERROR(VLOOKUP(A21,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>24</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="28">
         <f>IFERROR(VLOOKUP(A21,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>9.5</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="19">
         <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
@@ -1754,19 +1811,19 @@
       <c r="A22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="28">
         <f>IFERROR(VLOOKUP(A22,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>24.5</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="28">
         <f>IFERROR(VLOOKUP(A22,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>16.5</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="28">
         <f>IFERROR(VLOOKUP(A22,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>16.5</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="19">
         <f t="shared" si="0"/>
         <v>19.166666666666668</v>
       </c>
@@ -1775,19 +1832,19 @@
       <c r="A23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="28">
         <f>IFERROR(VLOOKUP(A23,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>24.5</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="28">
         <f>IFERROR(VLOOKUP(A23,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>11.5</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="28">
         <f>IFERROR(VLOOKUP(A23,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>22</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="19">
         <f t="shared" si="0"/>
         <v>19.333333333333332</v>
       </c>
@@ -1796,19 +1853,19 @@
       <c r="A24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="28">
         <f>IFERROR(VLOOKUP(A24,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>16.5</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="28">
         <f>IFERROR(VLOOKUP(A24,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>21</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="28">
         <f>IFERROR(VLOOKUP(A24,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>22</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="19">
         <f t="shared" si="0"/>
         <v>19.833333333333332</v>
       </c>
@@ -1817,19 +1874,19 @@
       <c r="A25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="28">
         <f>IFERROR(VLOOKUP(A25,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>10</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="28">
         <f>IFERROR(VLOOKUP(A25,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>25</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="28">
         <f>IFERROR(VLOOKUP(A25,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>25</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1838,19 +1895,19 @@
       <c r="A26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="28">
         <f>IFERROR(VLOOKUP(A26,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>20</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="28">
         <f>IFERROR(VLOOKUP(A26,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>20</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="28">
         <f>IFERROR(VLOOKUP(A26,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>24</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="19">
         <f t="shared" si="0"/>
         <v>21.333333333333332</v>
       </c>
@@ -1859,19 +1916,19 @@
       <c r="A27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="28">
         <f>IFERROR(VLOOKUP(A27,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>26.5</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="28">
         <f>IFERROR(VLOOKUP(A27,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>25.5</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="28">
         <f>IFERROR(VLOOKUP(A27,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>25</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="19">
         <f t="shared" si="0"/>
         <v>25.666666666666668</v>
       </c>
@@ -1880,19 +1937,19 @@
       <c r="A28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="28">
         <f>IFERROR(VLOOKUP(A28,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>26.5</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="28">
         <f>IFERROR(VLOOKUP(A28,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>25.5</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="28">
         <f>IFERROR(VLOOKUP(A28,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>27</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="19">
         <f t="shared" si="0"/>
         <v>26.333333333333332</v>
       </c>
@@ -1901,19 +1958,19 @@
       <c r="A29" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="29">
         <f>IFERROR(VLOOKUP(A29,B!$A$2:$G$29,7,FALSE),25)</f>
         <v>28</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="29">
         <f>IFERROR(VLOOKUP(A29,IBM!$A$2:$G$28,7,FALSE),25)</f>
         <v>27</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="29">
         <f>IFERROR(VLOOKUP(A29,HRA!$A$2:$G$28,7,FALSE),25)</f>
         <v>26</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="21">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -1925,6 +1982,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1939,11 +1997,11 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1951,19 +2009,19 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1997,7 +2055,7 @@
         <f>_xlfn.RANK.AVG(E2,$E$2:$E$29)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="27"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -2026,7 +2084,7 @@
         <f>_xlfn.RANK.AVG(E3,$E$2:$E$29)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="27"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -2055,7 +2113,7 @@
         <f t="shared" ref="G4:G29" si="0">_xlfn.RANK.AVG(E4,$E$2:$E$29)</f>
         <v>4</v>
       </c>
-      <c r="M4" s="27"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -2084,7 +2142,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M5" s="27"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -2113,8 +2171,8 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -2143,7 +2201,7 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="M7" s="27"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -2172,7 +2230,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M8" s="27"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -2201,7 +2259,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M9" s="27"/>
+      <c r="M9" s="24"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -2230,7 +2288,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M10" s="27"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
@@ -2259,7 +2317,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M11" s="27"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -2288,7 +2346,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M12" s="27"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
@@ -2317,7 +2375,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M13" s="27"/>
+      <c r="M13" s="24"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -2346,7 +2404,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M14" s="27"/>
+      <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
@@ -2375,7 +2433,7 @@
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
-      <c r="M15" s="27"/>
+      <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
@@ -2404,7 +2462,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M16" s="27"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -2433,7 +2491,7 @@
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
-      <c r="M17" s="27"/>
+      <c r="M17" s="24"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
@@ -2462,7 +2520,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="M18" s="27"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
@@ -2491,7 +2549,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M19" s="27"/>
+      <c r="M19" s="24"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
@@ -2520,7 +2578,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M20" s="27"/>
+      <c r="M20" s="24"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
@@ -2549,7 +2607,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M21" s="27"/>
+      <c r="M21" s="24"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -2578,7 +2636,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="M22" s="27"/>
+      <c r="M22" s="24"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
@@ -2607,7 +2665,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M23" s="27"/>
+      <c r="M23" s="24"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
@@ -2636,7 +2694,7 @@
         <f t="shared" si="0"/>
         <v>26.5</v>
       </c>
-      <c r="M24" s="27"/>
+      <c r="M24" s="24"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
@@ -2665,7 +2723,7 @@
         <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
-      <c r="M25" s="27"/>
+      <c r="M25" s="24"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
@@ -2694,7 +2752,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="M26" s="27"/>
+      <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -2723,7 +2781,7 @@
         <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
-      <c r="M27" s="27"/>
+      <c r="M27" s="24"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -2752,7 +2810,7 @@
         <f t="shared" si="0"/>
         <v>26.5</v>
       </c>
-      <c r="M28" s="27"/>
+      <c r="M28" s="24"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -2781,7 +2839,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M29" s="27"/>
+      <c r="M29" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2831,10 +2889,10 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="22" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2843,7 +2901,7 @@
       <c r="E2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="22">
         <v>0.23</v>
       </c>
     </row>
@@ -2851,10 +2909,10 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="22" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2863,7 +2921,7 @@
       <c r="E3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="22">
         <v>0.32</v>
       </c>
     </row>
@@ -2871,10 +2929,10 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="22" t="s">
         <v>70</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2883,7 +2941,7 @@
       <c r="E4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="22">
         <v>0.18</v>
       </c>
     </row>
@@ -2891,10 +2949,10 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="22" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2903,7 +2961,7 @@
       <c r="E5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="22">
         <v>0.13</v>
       </c>
     </row>
@@ -2911,10 +2969,10 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2923,7 +2981,7 @@
       <c r="E6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>0.08</v>
       </c>
     </row>
@@ -2931,10 +2989,10 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="22" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2943,7 +3001,7 @@
       <c r="E7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <v>0.06</v>
       </c>
     </row>
@@ -2951,10 +3009,10 @@
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2963,7 +3021,7 @@
       <c r="E8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -2971,10 +3029,10 @@
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="22" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -2983,7 +3041,7 @@
       <c r="E9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="22">
         <v>0.21</v>
       </c>
     </row>
@@ -2991,10 +3049,10 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="22" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -3003,7 +3061,7 @@
       <c r="E10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="22">
         <v>0.13</v>
       </c>
     </row>
@@ -3011,10 +3069,10 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="22" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -3023,7 +3081,7 @@
       <c r="E11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="22">
         <v>0.06</v>
       </c>
     </row>
@@ -3031,10 +3089,10 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="22" t="s">
         <v>73</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -3043,7 +3101,7 @@
       <c r="E12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="22">
         <v>0.04</v>
       </c>
     </row>
@@ -3051,10 +3109,10 @@
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="22" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -3063,7 +3121,7 @@
       <c r="E13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -3071,10 +3129,10 @@
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="22" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -3083,7 +3141,7 @@
       <c r="E14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="22">
         <v>0.05</v>
       </c>
     </row>
@@ -3091,10 +3149,10 @@
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="22" t="s">
         <v>75</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -3103,7 +3161,7 @@
       <c r="E15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="22">
         <v>0.54</v>
       </c>
     </row>
@@ -3111,10 +3169,10 @@
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="22" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -3123,7 +3181,7 @@
       <c r="E16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="22">
         <v>0.12</v>
       </c>
     </row>
@@ -3131,10 +3189,10 @@
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="22" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -3143,7 +3201,7 @@
       <c r="E17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="22">
         <v>0.03</v>
       </c>
     </row>
@@ -3151,10 +3209,10 @@
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -3163,7 +3221,7 @@
       <c r="E18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="22">
         <v>0.06</v>
       </c>
     </row>
@@ -3171,10 +3229,10 @@
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="22" t="s">
         <v>79</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -3183,7 +3241,7 @@
       <c r="E19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="22">
         <v>0.16</v>
       </c>
     </row>
@@ -3191,10 +3249,10 @@
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="22" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -3203,7 +3261,7 @@
       <c r="E20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="22">
         <v>0.02</v>
       </c>
     </row>
@@ -3211,10 +3269,10 @@
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="22" t="s">
         <v>78</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -3223,7 +3281,7 @@
       <c r="E21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="22">
         <v>0.03</v>
       </c>
     </row>
@@ -3231,10 +3289,10 @@
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="22" t="s">
         <v>80</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -3243,7 +3301,7 @@
       <c r="E22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="22">
         <v>0.03</v>
       </c>
     </row>
@@ -3251,10 +3309,10 @@
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="22" t="s">
         <v>82</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -3263,7 +3321,7 @@
       <c r="E23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="22">
         <v>0.05</v>
       </c>
     </row>
@@ -3271,10 +3329,10 @@
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="22" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -3283,7 +3341,7 @@
       <c r="E24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="22">
         <v>0.02</v>
       </c>
     </row>
@@ -3291,10 +3349,10 @@
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="22" t="s">
         <v>85</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -3303,7 +3361,7 @@
       <c r="E25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="22">
         <v>0.03</v>
       </c>
     </row>
@@ -3311,10 +3369,10 @@
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="22" t="s">
         <v>85</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -3323,7 +3381,7 @@
       <c r="E26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="22">
         <v>0.03</v>
       </c>
     </row>
@@ -3331,10 +3389,10 @@
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="22" t="s">
         <v>87</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -3343,7 +3401,7 @@
       <c r="E27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="22">
         <v>0.02</v>
       </c>
     </row>
@@ -3351,10 +3409,10 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="22" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -3363,7 +3421,7 @@
       <c r="E28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="22">
         <v>0.03</v>
       </c>
     </row>
@@ -3539,7 +3597,7 @@
         <f>IFERROR(VLOOKUP($A2,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.73</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="26">
         <v>0.89</v>
       </c>
       <c r="F2" s="6" t="str">
@@ -3567,7 +3625,7 @@
         <f>IFERROR(VLOOKUP($A3,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.71</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="26">
         <v>0.87</v>
       </c>
       <c r="F3" s="6" t="str">
@@ -3595,7 +3653,7 @@
         <f>IFERROR(VLOOKUP($A4,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.70</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="26">
         <v>0.87</v>
       </c>
       <c r="F4" s="6" t="str">
@@ -3623,7 +3681,7 @@
         <f>IFERROR(VLOOKUP($A5,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.66</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="26">
         <v>0.86</v>
       </c>
       <c r="F5" s="6" t="str">
@@ -3651,7 +3709,7 @@
         <f>IFERROR(VLOOKUP($A6,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>NA</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="26">
         <v>0.86282999999999999</v>
       </c>
       <c r="F6" s="6" t="str">
@@ -3679,7 +3737,7 @@
         <f>IFERROR(VLOOKUP($A7,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.74</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="26">
         <v>0.85</v>
       </c>
       <c r="F7" s="6" t="str">
@@ -3707,7 +3765,7 @@
         <f>IFERROR(VLOOKUP($A8,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.67</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="26">
         <v>0.85</v>
       </c>
       <c r="F8" s="6" t="str">
@@ -3735,7 +3793,7 @@
         <f>IFERROR(VLOOKUP($A9,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.66</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="26">
         <v>0.85</v>
       </c>
       <c r="F9" s="6" t="str">
@@ -3763,7 +3821,7 @@
         <f>IFERROR(VLOOKUP($A10,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.65</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="26">
         <v>0.85</v>
       </c>
       <c r="F10" s="6" t="str">
@@ -3791,7 +3849,7 @@
         <f>IFERROR(VLOOKUP($A11,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.71</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="26">
         <v>0.84</v>
       </c>
       <c r="F11" s="6" t="str">
@@ -3819,7 +3877,7 @@
         <f>IFERROR(VLOOKUP($A12,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.63</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="26">
         <v>0.84</v>
       </c>
       <c r="F12" s="6" t="str">
@@ -3847,7 +3905,7 @@
         <f>IFERROR(VLOOKUP($A13,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.63</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="26">
         <v>0.84</v>
       </c>
       <c r="F13" s="6" t="str">
@@ -3875,7 +3933,7 @@
         <f>IFERROR(VLOOKUP($A14,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.61</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="26">
         <v>0.84</v>
       </c>
       <c r="F14" s="6" t="str">
@@ -3903,7 +3961,7 @@
         <f>IFERROR(VLOOKUP($A15,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.60</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="26">
         <v>0.83</v>
       </c>
       <c r="F15" s="6" t="str">
@@ -3931,7 +3989,7 @@
         <f>IFERROR(VLOOKUP($A16,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.70</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="26">
         <v>0.82</v>
       </c>
       <c r="F16" s="6" t="str">
@@ -3959,7 +4017,7 @@
         <f>IFERROR(VLOOKUP($A17,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.63</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="26">
         <v>0.82</v>
       </c>
       <c r="F17" s="6" t="str">
@@ -3987,7 +4045,7 @@
         <f>IFERROR(VLOOKUP($A18,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.58</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="26">
         <v>0.82</v>
       </c>
       <c r="F18" s="6" t="str">
@@ -4015,7 +4073,7 @@
         <f>IFERROR(VLOOKUP($A19,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.58</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="26">
         <v>0.82</v>
       </c>
       <c r="F19" s="6" t="str">
@@ -4043,7 +4101,7 @@
         <f>IFERROR(VLOOKUP($A20,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.67</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="26">
         <v>0.8</v>
       </c>
       <c r="F20" s="6" t="str">
@@ -4071,7 +4129,7 @@
         <f>IFERROR(VLOOKUP($A21,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.60</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="26">
         <v>0.79</v>
       </c>
       <c r="F21" s="6" t="str">
@@ -4099,7 +4157,7 @@
         <f>IFERROR(VLOOKUP($A22,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.59</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="26">
         <v>0.77</v>
       </c>
       <c r="F22" s="6" t="str">
@@ -4127,7 +4185,7 @@
         <f>IFERROR(VLOOKUP($A23,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.58</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="26">
         <v>0.76</v>
       </c>
       <c r="F23" s="6" t="str">
@@ -4155,7 +4213,7 @@
         <f>IFERROR(VLOOKUP($A24,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.58</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="26">
         <v>0.76</v>
       </c>
       <c r="F24" s="6" t="str">
@@ -4183,7 +4241,7 @@
         <f>IFERROR(VLOOKUP($A25,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.72</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="26">
         <v>0.75</v>
       </c>
       <c r="F25" s="6" t="str">
@@ -4211,7 +4269,7 @@
         <f>IFERROR(VLOOKUP($A26,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.70</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="26">
         <v>0.73</v>
       </c>
       <c r="F26" s="6" t="str">
@@ -4239,7 +4297,7 @@
         <f>IFERROR(VLOOKUP($A27,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.50</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="26">
         <v>0.73</v>
       </c>
       <c r="F27" s="6" t="str">
@@ -4267,7 +4325,7 @@
         <f>IFERROR(VLOOKUP($A28,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.55</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="26">
         <v>0.27</v>
       </c>
       <c r="F28" s="6" t="str">
@@ -5020,11 +5078,11 @@
         <f>IFERROR(VLOOKUP($A2,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>NA</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="15">
         <f>IFERROR(VLOOKUP($A2,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.76966999999999997</v>
       </c>
-      <c r="F2" s="18" t="str">
+      <c r="F2" s="16" t="str">
         <f>IFERROR(VLOOKUP($A2,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>NA</v>
       </c>
@@ -5049,11 +5107,11 @@
         <f>IFERROR(VLOOKUP($A3,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.67</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <f>IFERROR(VLOOKUP($A3,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.76</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <f>IFERROR(VLOOKUP($A3,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>0.14000000000000001</v>
       </c>
@@ -5078,11 +5136,11 @@
         <f>IFERROR(VLOOKUP($A4,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.66</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <f>IFERROR(VLOOKUP($A4,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.76</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <f>IFERROR(VLOOKUP($A4,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>0.63</v>
       </c>
@@ -5107,11 +5165,11 @@
         <f>IFERROR(VLOOKUP($A5,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.66</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <f>IFERROR(VLOOKUP($A5,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.76</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <f>IFERROR(VLOOKUP($A5,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>2.84</v>
       </c>
@@ -5136,11 +5194,11 @@
         <f>IFERROR(VLOOKUP($A6,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.65</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <f>IFERROR(VLOOKUP($A6,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.76</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <f>IFERROR(VLOOKUP($A6,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>0.5</v>
       </c>
@@ -5165,11 +5223,11 @@
         <f>IFERROR(VLOOKUP($A7,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.65</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <f>IFERROR(VLOOKUP($A7,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.76</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <f>IFERROR(VLOOKUP($A7,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>29.76</v>
       </c>
@@ -5194,11 +5252,11 @@
         <f>IFERROR(VLOOKUP($A8,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.65</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <f>IFERROR(VLOOKUP($A8,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.76</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <f>IFERROR(VLOOKUP($A8,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>5.32</v>
       </c>
@@ -5223,11 +5281,11 @@
         <f>IFERROR(VLOOKUP($A9,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.69</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <f>IFERROR(VLOOKUP($A9,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.75</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <f>IFERROR(VLOOKUP($A9,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>0.21</v>
       </c>
@@ -5252,11 +5310,11 @@
         <f>IFERROR(VLOOKUP($A10,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.64</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <f>IFERROR(VLOOKUP($A10,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.75</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <f>IFERROR(VLOOKUP($A10,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>0.24</v>
       </c>
@@ -5281,11 +5339,11 @@
         <f>IFERROR(VLOOKUP($A11,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.64</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <f>IFERROR(VLOOKUP($A11,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.75</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <f>IFERROR(VLOOKUP($A11,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>0.38</v>
       </c>
@@ -5310,11 +5368,11 @@
         <f>IFERROR(VLOOKUP($A12,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.63</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <f>IFERROR(VLOOKUP($A12,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.75</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <f>IFERROR(VLOOKUP($A12,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>0.56000000000000005</v>
       </c>
@@ -5339,11 +5397,11 @@
         <f>IFERROR(VLOOKUP($A13,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.62</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <f>IFERROR(VLOOKUP($A13,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.74</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <f>IFERROR(VLOOKUP($A13,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>13.97</v>
       </c>
@@ -5368,11 +5426,11 @@
         <f>IFERROR(VLOOKUP($A14,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.62</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <f>IFERROR(VLOOKUP($A14,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.74</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="16">
         <f>IFERROR(VLOOKUP($A14,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>21.22</v>
       </c>
@@ -5397,11 +5455,11 @@
         <f>IFERROR(VLOOKUP($A15,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.61</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <f>IFERROR(VLOOKUP($A15,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.74</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="16">
         <f>IFERROR(VLOOKUP($A15,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>0.33</v>
       </c>
@@ -5426,11 +5484,11 @@
         <f>IFERROR(VLOOKUP($A16,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.64</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <f>IFERROR(VLOOKUP($A16,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.73</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="16">
         <f>IFERROR(VLOOKUP($A16,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>11.99</v>
       </c>
@@ -5455,11 +5513,11 @@
         <f>IFERROR(VLOOKUP($A17,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.64</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <f>IFERROR(VLOOKUP($A17,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.73</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="16">
         <f>IFERROR(VLOOKUP($A17,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>8.76</v>
       </c>
@@ -5484,11 +5542,11 @@
         <f>IFERROR(VLOOKUP($A18,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.63</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <f>IFERROR(VLOOKUP($A18,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.73</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="16">
         <f>IFERROR(VLOOKUP($A18,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>0.28000000000000003</v>
       </c>
@@ -5513,11 +5571,11 @@
         <f>IFERROR(VLOOKUP($A19,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <f>IFERROR(VLOOKUP($A19,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.73</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="16">
         <f>IFERROR(VLOOKUP($A19,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>1.05</v>
       </c>
@@ -5542,11 +5600,11 @@
         <f>IFERROR(VLOOKUP($A20,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.62</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <f>IFERROR(VLOOKUP($A20,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.72</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="16">
         <f>IFERROR(VLOOKUP($A20,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>0.75</v>
       </c>
@@ -5571,11 +5629,11 @@
         <f>IFERROR(VLOOKUP($A21,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.61</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <f>IFERROR(VLOOKUP($A21,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.72</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="16">
         <f>IFERROR(VLOOKUP($A21,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>2.39</v>
       </c>
@@ -5600,11 +5658,11 @@
         <f>IFERROR(VLOOKUP($A22,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.62</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="15">
         <f>IFERROR(VLOOKUP($A22,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.71</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="16">
         <f>IFERROR(VLOOKUP($A22,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>2.9</v>
       </c>
@@ -5629,11 +5687,11 @@
         <f>IFERROR(VLOOKUP($A23,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.61</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="15">
         <f>IFERROR(VLOOKUP($A23,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.71</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <f>IFERROR(VLOOKUP($A23,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>0.13</v>
       </c>
@@ -5658,11 +5716,11 @@
         <f>IFERROR(VLOOKUP($A24,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.59</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="15">
         <f>IFERROR(VLOOKUP($A24,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.71</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <f>IFERROR(VLOOKUP($A24,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>0.22</v>
       </c>
@@ -5687,11 +5745,11 @@
         <f>IFERROR(VLOOKUP($A25,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.61</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="15">
         <f>IFERROR(VLOOKUP($A25,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.7</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="16">
         <f>IFERROR(VLOOKUP($A25,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>0.18</v>
       </c>
@@ -5716,11 +5774,11 @@
         <f>IFERROR(VLOOKUP($A26,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.5</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="15">
         <f>IFERROR(VLOOKUP($A26,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.63</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="16">
         <f>IFERROR(VLOOKUP($A26,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>0.1</v>
       </c>
@@ -5745,11 +5803,11 @@
         <f>IFERROR(VLOOKUP($A27,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.53</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="15">
         <f>IFERROR(VLOOKUP($A27,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.32</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="16">
         <f>IFERROR(VLOOKUP($A27,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>0.39</v>
       </c>
@@ -5774,11 +5832,11 @@
         <f>IFERROR(VLOOKUP($A28,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.53</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="15">
         <f>IFERROR(VLOOKUP($A28,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.23</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="16">
         <f>IFERROR(VLOOKUP($A28,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
         <v>0.12</v>
       </c>
@@ -5788,143 +5846,143 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="18"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="18"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="18"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="18"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="18"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="18"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="16"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="18"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="16"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="18"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="16"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="18"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="16"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="18"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="16"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="18"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="16"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="18"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6505,7 +6563,7 @@
       <c r="D28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="22">
         <v>0.76966999999999997</v>
       </c>
       <c r="F28" s="2" t="s">

--- a/eda_results_table_16052022.xlsx
+++ b/eda_results_table_16052022.xlsx
@@ -16,10 +16,11 @@
     <sheet name="h_HRA" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">B!$A$1:$G$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">B!$A$1:$G$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Combined!$A$1:$E$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">HRA!$A$1:$G$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IBM!$A$1:$G$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">h_IBM!$A$1:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">HRA!$A$1:$G$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IBM!$A$1:$G$28</definedName>
     <definedName name="B" localSheetId="1">B!$A$1:$E$31</definedName>
     <definedName name="HRA" localSheetId="5">HRA!$A$1:$F$56</definedName>
     <definedName name="IBM" localSheetId="3">IBM!$A$1:$F$29</definedName>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="146">
   <si>
     <t>Accuracy</t>
   </si>
@@ -602,9 +603,6 @@
     <t>0.23</t>
   </si>
   <si>
-    <t>0.18</t>
-  </si>
-  <si>
     <t>0.08</t>
   </si>
   <si>
@@ -683,9 +681,6 @@
     <t>0.76</t>
   </si>
   <si>
-    <t>0.28</t>
-  </si>
-  <si>
     <t>0.27</t>
   </si>
   <si>
@@ -695,13 +690,88 @@
     <t>0.17</t>
   </si>
   <si>
-    <t>0.41</t>
-  </si>
-  <si>
     <t>0.14</t>
   </si>
   <si>
-    <t>0.34</t>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>31.98</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>9.56</t>
+  </si>
+  <si>
+    <t>7.28</t>
+  </si>
+  <si>
+    <t>14.05</t>
+  </si>
+  <si>
+    <t>19.65</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>1.04</t>
   </si>
 </sst>
 </file>
@@ -1008,66 +1078,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Kép 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7787640" y="0"/>
-          <a:ext cx="7185660" cy="5326380"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="B" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -1357,9 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1404,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="18">
-        <f t="shared" ref="E2:E29" si="0">AVERAGE(B2:D2)</f>
+        <f>AVERAGE(B2:D2)</f>
         <v>2.6666666666666665</v>
       </c>
     </row>
@@ -1425,7 +1433,7 @@
         <v>4.5</v>
       </c>
       <c r="E3" s="18">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B3:D3)</f>
         <v>5.333333333333333</v>
       </c>
     </row>
@@ -1446,7 +1454,7 @@
         <v>4.5</v>
       </c>
       <c r="E4" s="18">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B4:D4)</f>
         <v>5.666666666666667</v>
       </c>
     </row>
@@ -1467,7 +1475,7 @@
         <v>4.5</v>
       </c>
       <c r="E5" s="20">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B5:D5)</f>
         <v>5.666666666666667</v>
       </c>
     </row>
@@ -1488,7 +1496,7 @@
         <v>4.5</v>
       </c>
       <c r="E6" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B6:D6)</f>
         <v>5.666666666666667</v>
       </c>
     </row>
@@ -1509,7 +1517,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B7:D7)</f>
         <v>9.3333333333333339</v>
       </c>
     </row>
@@ -1530,7 +1538,7 @@
         <v>4.5</v>
       </c>
       <c r="E8" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B8:D8)</f>
         <v>10</v>
       </c>
     </row>
@@ -1551,7 +1559,7 @@
         <v>9.5</v>
       </c>
       <c r="E9" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B9:D9)</f>
         <v>10.333333333333334</v>
       </c>
     </row>
@@ -1572,7 +1580,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B10:D10)</f>
         <v>11.5</v>
       </c>
     </row>
@@ -1593,7 +1601,7 @@
         <v>9.5</v>
       </c>
       <c r="E11" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B11:D11)</f>
         <v>11.666666666666666</v>
       </c>
     </row>
@@ -1614,7 +1622,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B12:D12)</f>
         <v>12.333333333333334</v>
       </c>
     </row>
@@ -1635,7 +1643,7 @@
         <v>19.5</v>
       </c>
       <c r="E13" s="18">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B13:D13)</f>
         <v>12.666666666666666</v>
       </c>
     </row>
@@ -1656,7 +1664,7 @@
         <v>9.5</v>
       </c>
       <c r="E14" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B14:D14)</f>
         <v>13.333333333333334</v>
       </c>
     </row>
@@ -1677,7 +1685,7 @@
         <v>4.5</v>
       </c>
       <c r="E15" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B15:D15)</f>
         <v>14.5</v>
       </c>
     </row>
@@ -1698,7 +1706,7 @@
         <v>16.5</v>
       </c>
       <c r="E16" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B16:D16)</f>
         <v>14.666666666666666</v>
       </c>
     </row>
@@ -1719,7 +1727,7 @@
         <v>16.5</v>
       </c>
       <c r="E17" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B17:D17)</f>
         <v>15.166666666666666</v>
       </c>
     </row>
@@ -1740,7 +1748,7 @@
         <v>16.5</v>
       </c>
       <c r="E18" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B18:D18)</f>
         <v>15.166666666666666</v>
       </c>
     </row>
@@ -1761,7 +1769,7 @@
         <v>19.5</v>
       </c>
       <c r="E19" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B19:D19)</f>
         <v>15.333333333333334</v>
       </c>
     </row>
@@ -1782,7 +1790,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B20:D20)</f>
         <v>15.833333333333334</v>
       </c>
     </row>
@@ -1803,7 +1811,7 @@
         <v>9.5</v>
       </c>
       <c r="E21" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B21:D21)</f>
         <v>18.5</v>
       </c>
     </row>
@@ -1824,7 +1832,7 @@
         <v>16.5</v>
       </c>
       <c r="E22" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B22:D22)</f>
         <v>19.166666666666668</v>
       </c>
     </row>
@@ -1845,7 +1853,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B23:D23)</f>
         <v>19.333333333333332</v>
       </c>
     </row>
@@ -1866,7 +1874,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B24:D24)</f>
         <v>19.833333333333332</v>
       </c>
     </row>
@@ -1887,7 +1895,7 @@
         <v>25</v>
       </c>
       <c r="E25" s="20">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B25:D25)</f>
         <v>20</v>
       </c>
     </row>
@@ -1908,7 +1916,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B26:D26)</f>
         <v>21.333333333333332</v>
       </c>
     </row>
@@ -1929,7 +1937,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B27:D27)</f>
         <v>25.666666666666668</v>
       </c>
     </row>
@@ -1950,7 +1958,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="19">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B28:D28)</f>
         <v>26.333333333333332</v>
       </c>
     </row>
@@ -1971,7 +1979,7 @@
         <v>26</v>
       </c>
       <c r="E29" s="21">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(B29:D29)</f>
         <v>27</v>
       </c>
     </row>
@@ -1982,16 +1990,15 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2005,7 +2012,7 @@
     <col min="7" max="7" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2028,7 +2035,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -2049,15 +2056,15 @@
       </c>
       <c r="F2" s="3">
         <f>IFERROR(VLOOKUP($A2,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="G2" s="3">
         <f>_xlfn.RANK.AVG(E2,$E$2:$E$29)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="24"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2078,105 +2085,104 @@
       </c>
       <c r="F3" s="3">
         <f>IFERROR(VLOOKUP($A3,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="G3" s="3">
         <f>_xlfn.RANK.AVG(E3,$E$2:$E$29)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="24"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L3" s="24"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="str">
         <f>IFERROR(VLOOKUP($A4,h_B!$A$2:$F$29,2,FALSE),"")</f>
-        <v>0.70</v>
+        <v>NA</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>IFERROR(VLOOKUP($A4,h_B!$A$2:$F$29,3,FALSE),"")</f>
-        <v>0.70</v>
+        <v>NA</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>IFERROR(VLOOKUP($A4,h_B!$A$2:$F$29,4,FALSE),"")</f>
-        <v>0.70</v>
+        <v>NA</v>
       </c>
       <c r="E4" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F4" s="3">
+        <v>0.70743</v>
+      </c>
+      <c r="F4" s="3" t="str">
         <f>IFERROR(VLOOKUP($A4,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.18</v>
+        <v>NA</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G29" si="0">_xlfn.RANK.AVG(E4,$E$2:$E$29)</f>
-        <v>4</v>
-      </c>
-      <c r="M4" s="24"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <f>_xlfn.RANK.AVG(E4,$E$2:$E$29)</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="str">
         <f>IFERROR(VLOOKUP($A5,h_B!$A$2:$F$29,2,FALSE),"")</f>
-        <v>0.69</v>
+        <v>0.70</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>IFERROR(VLOOKUP($A5,h_B!$A$2:$F$29,3,FALSE),"")</f>
-        <v>0.69</v>
+        <v>0.70</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>IFERROR(VLOOKUP($A5,h_B!$A$2:$F$29,4,FALSE),"")</f>
-        <v>0.69</v>
+        <v>0.70</v>
       </c>
       <c r="E5" s="3">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="F5" s="3">
         <f>IFERROR(VLOOKUP($A5,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M5" s="24"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <f>_xlfn.RANK.AVG(E5,$E$2:$E$29)</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="str">
         <f>IFERROR(VLOOKUP($A6,h_B!$A$2:$F$29,2,FALSE),"")</f>
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>IFERROR(VLOOKUP($A6,h_B!$A$2:$F$29,3,FALSE),"")</f>
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="D6" s="3" t="str">
         <f>IFERROR(VLOOKUP($A6,h_B!$A$2:$F$29,4,FALSE),"")</f>
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="E6" s="3">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="F6" s="3">
         <f>IFERROR(VLOOKUP($A6,h_B!$A$2:$F$29,6,FALSE),"")</f>
         <v>0.08</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <f>_xlfn.RANK.AVG(E6,$E$2:$E$29)</f>
+        <v>5</v>
+      </c>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="str">
         <f>IFERROR(VLOOKUP($A7,h_B!$A$2:$F$29,2,FALSE),"")</f>
@@ -2195,46 +2201,46 @@
       </c>
       <c r="F7" s="3">
         <f>IFERROR(VLOOKUP($A7,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E7,$E$2:$E$29)</f>
         <v>6.5</v>
       </c>
-      <c r="M7" s="24"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="str">
         <f>IFERROR(VLOOKUP($A8,h_B!$A$2:$F$29,2,FALSE),"")</f>
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>IFERROR(VLOOKUP($A8,h_B!$A$2:$F$29,3,FALSE),"")</f>
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="D8" s="3" t="str">
         <f>IFERROR(VLOOKUP($A8,h_B!$A$2:$F$29,4,FALSE),"")</f>
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E8" s="3">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="F8" s="3">
         <f>IFERROR(VLOOKUP($A8,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M8" s="24"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <f>_xlfn.RANK.AVG(E8,$E$2:$E$29)</f>
+        <v>6.5</v>
+      </c>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="str">
         <f>IFERROR(VLOOKUP($A9,h_B!$A$2:$F$29,2,FALSE),"")</f>
@@ -2242,28 +2248,28 @@
       </c>
       <c r="C9" s="3" t="str">
         <f>IFERROR(VLOOKUP($A9,h_B!$A$2:$F$29,3,FALSE),"")</f>
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="D9" s="3" t="str">
         <f>IFERROR(VLOOKUP($A9,h_B!$A$2:$F$29,4,FALSE),"")</f>
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E9" s="3">
         <v>0.66</v>
       </c>
       <c r="F9" s="3">
         <f>IFERROR(VLOOKUP($A9,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E9,$E$2:$E$29)</f>
         <v>10</v>
       </c>
-      <c r="M9" s="24"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>13</v>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="str">
         <f>IFERROR(VLOOKUP($A10,h_B!$A$2:$F$29,2,FALSE),"")</f>
@@ -2285,14 +2291,14 @@
         <v>0.13</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E10,$E$2:$E$29)</f>
         <v>10</v>
       </c>
-      <c r="M10" s="24"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>18</v>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="str">
         <f>IFERROR(VLOOKUP($A11,h_B!$A$2:$F$29,2,FALSE),"")</f>
@@ -2311,17 +2317,17 @@
       </c>
       <c r="F11" s="3">
         <f>IFERROR(VLOOKUP($A11,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E11,$E$2:$E$29)</f>
         <v>10</v>
       </c>
-      <c r="M11" s="24"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="str">
         <f>IFERROR(VLOOKUP($A12,h_B!$A$2:$F$29,2,FALSE),"")</f>
@@ -2340,21 +2346,21 @@
       </c>
       <c r="F12" s="3">
         <f>IFERROR(VLOOKUP($A12,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E12,$E$2:$E$29)</f>
         <v>10</v>
       </c>
-      <c r="M12" s="24"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="str">
         <f>IFERROR(VLOOKUP($A13,h_B!$A$2:$F$29,2,FALSE),"")</f>
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="C13" s="3" t="str">
         <f>IFERROR(VLOOKUP($A13,h_B!$A$2:$F$29,3,FALSE),"")</f>
@@ -2365,21 +2371,21 @@
         <v>0.66</v>
       </c>
       <c r="E13" s="3">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F13" s="3">
         <f>IFERROR(VLOOKUP($A13,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="M13" s="24"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <f>_xlfn.RANK.AVG(E13,$E$2:$E$29)</f>
+        <v>10</v>
+      </c>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="str">
         <f>IFERROR(VLOOKUP($A14,h_B!$A$2:$F$29,2,FALSE),"")</f>
@@ -2387,32 +2393,32 @@
       </c>
       <c r="C14" s="3" t="str">
         <f>IFERROR(VLOOKUP($A14,h_B!$A$2:$F$29,3,FALSE),"")</f>
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="D14" s="3" t="str">
         <f>IFERROR(VLOOKUP($A14,h_B!$A$2:$F$29,4,FALSE),"")</f>
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="E14" s="3">
         <v>0.65</v>
       </c>
       <c r="F14" s="3">
         <f>IFERROR(VLOOKUP($A14,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E14,$E$2:$E$29)</f>
         <v>14</v>
       </c>
-      <c r="M14" s="24"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>IFERROR(VLOOKUP($A15,h_B!$A$2:$F$29,2,FALSE),"")</f>
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="C15" s="3" t="str">
         <f>IFERROR(VLOOKUP($A15,h_B!$A$2:$F$29,3,FALSE),"")</f>
@@ -2423,19 +2429,19 @@
         <v>0.65</v>
       </c>
       <c r="E15" s="3">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F15" s="3">
         <f>IFERROR(VLOOKUP($A15,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.54</v>
+        <v>0.03</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <f>_xlfn.RANK.AVG(E15,$E$2:$E$29)</f>
+        <v>14</v>
+      </c>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
@@ -2456,17 +2462,17 @@
       </c>
       <c r="F16" s="3">
         <f>IFERROR(VLOOKUP($A16,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E16,$E$2:$E$29)</f>
         <v>14</v>
       </c>
-      <c r="M16" s="24"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="str">
         <f>IFERROR(VLOOKUP($A17,h_B!$A$2:$F$29,2,FALSE),"")</f>
@@ -2474,86 +2480,86 @@
       </c>
       <c r="C17" s="3" t="str">
         <f>IFERROR(VLOOKUP($A17,h_B!$A$2:$F$29,3,FALSE),"")</f>
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>IFERROR(VLOOKUP($A17,h_B!$A$2:$F$29,4,FALSE),"")</f>
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="E17" s="3">
         <v>0.64</v>
       </c>
       <c r="F17" s="3">
         <f>IFERROR(VLOOKUP($A17,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.03</v>
+        <v>0.42</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E17,$E$2:$E$29)</f>
         <v>16.5</v>
       </c>
-      <c r="M17" s="24"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>14</v>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="B18" s="3" t="str">
         <f>IFERROR(VLOOKUP($A18,h_B!$A$2:$F$29,2,FALSE),"")</f>
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="C18" s="3" t="str">
         <f>IFERROR(VLOOKUP($A18,h_B!$A$2:$F$29,3,FALSE),"")</f>
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="D18" s="3" t="str">
         <f>IFERROR(VLOOKUP($A18,h_B!$A$2:$F$29,4,FALSE),"")</f>
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="E18" s="3">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F18" s="3">
         <f>IFERROR(VLOOKUP($A18,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="M18" s="24"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>12</v>
+        <f>_xlfn.RANK.AVG(E18,$E$2:$E$29)</f>
+        <v>16.5</v>
+      </c>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B19" s="3" t="str">
         <f>IFERROR(VLOOKUP($A19,h_B!$A$2:$F$29,2,FALSE),"")</f>
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="C19" s="3" t="str">
         <f>IFERROR(VLOOKUP($A19,h_B!$A$2:$F$29,3,FALSE),"")</f>
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="D19" s="3" t="str">
         <f>IFERROR(VLOOKUP($A19,h_B!$A$2:$F$29,4,FALSE),"")</f>
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="E19" s="3">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="F19" s="3">
         <f>IFERROR(VLOOKUP($A19,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="M19" s="24"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <f>_xlfn.RANK.AVG(E19,$E$2:$E$29)</f>
+        <v>18</v>
+      </c>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3" t="str">
         <f>IFERROR(VLOOKUP($A20,h_B!$A$2:$F$29,2,FALSE),"")</f>
@@ -2561,28 +2567,28 @@
       </c>
       <c r="C20" s="3" t="str">
         <f>IFERROR(VLOOKUP($A20,h_B!$A$2:$F$29,3,FALSE),"")</f>
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="D20" s="3" t="str">
         <f>IFERROR(VLOOKUP($A20,h_B!$A$2:$F$29,4,FALSE),"")</f>
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="E20" s="3">
         <v>0.61</v>
       </c>
       <c r="F20" s="3">
         <f>IFERROR(VLOOKUP($A20,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E20,$E$2:$E$29)</f>
         <v>20</v>
       </c>
-      <c r="M20" s="24"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B21" s="3" t="str">
         <f>IFERROR(VLOOKUP($A21,h_B!$A$2:$F$29,2,FALSE),"")</f>
@@ -2601,102 +2607,102 @@
       </c>
       <c r="F21" s="3">
         <f>IFERROR(VLOOKUP($A21,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E21,$E$2:$E$29)</f>
         <v>20</v>
       </c>
-      <c r="M21" s="24"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B22" s="3" t="str">
         <f>IFERROR(VLOOKUP($A22,h_B!$A$2:$F$29,2,FALSE),"")</f>
-        <v>0.60</v>
+        <v>0.61</v>
       </c>
       <c r="C22" s="3" t="str">
         <f>IFERROR(VLOOKUP($A22,h_B!$A$2:$F$29,3,FALSE),"")</f>
-        <v>0.60</v>
+        <v>0.61</v>
       </c>
       <c r="D22" s="3" t="str">
         <f>IFERROR(VLOOKUP($A22,h_B!$A$2:$F$29,4,FALSE),"")</f>
-        <v>0.60</v>
+        <v>0.61</v>
       </c>
       <c r="E22" s="3">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="F22" s="3">
         <f>IFERROR(VLOOKUP($A22,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="M22" s="24"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <f>_xlfn.RANK.AVG(E22,$E$2:$E$29)</f>
+        <v>20</v>
+      </c>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3" t="str">
         <f>IFERROR(VLOOKUP($A23,h_B!$A$2:$F$29,2,FALSE),"")</f>
-        <v>0.55</v>
+        <v>0.60</v>
       </c>
       <c r="C23" s="3" t="str">
         <f>IFERROR(VLOOKUP($A23,h_B!$A$2:$F$29,3,FALSE),"")</f>
-        <v>0.56</v>
+        <v>0.60</v>
       </c>
       <c r="D23" s="3" t="str">
         <f>IFERROR(VLOOKUP($A23,h_B!$A$2:$F$29,4,FALSE),"")</f>
-        <v>0.56</v>
+        <v>0.60</v>
       </c>
       <c r="E23" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="F23" s="3">
         <f>IFERROR(VLOOKUP($A23,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="M23" s="24"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <f>_xlfn.RANK.AVG(E23,$E$2:$E$29)</f>
+        <v>22</v>
+      </c>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3" t="str">
         <f>IFERROR(VLOOKUP($A24,h_B!$A$2:$F$29,2,FALSE),"")</f>
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="C24" s="3" t="str">
         <f>IFERROR(VLOOKUP($A24,h_B!$A$2:$F$29,3,FALSE),"")</f>
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="D24" s="3" t="str">
         <f>IFERROR(VLOOKUP($A24,h_B!$A$2:$F$29,4,FALSE),"")</f>
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="E24" s="3">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F24" s="3">
         <f>IFERROR(VLOOKUP($A24,h_B!$A$2:$F$29,6,FALSE),"")</f>
         <v>0.02</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="0"/>
-        <v>26.5</v>
-      </c>
-      <c r="M24" s="24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <f>_xlfn.RANK.AVG(E24,$E$2:$E$29)</f>
+        <v>23</v>
+      </c>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
@@ -2717,73 +2723,73 @@
       </c>
       <c r="F25" s="3">
         <f>IFERROR(VLOOKUP($A25,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E25,$E$2:$E$29)</f>
         <v>24.5</v>
       </c>
-      <c r="M25" s="24"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B26" s="3" t="str">
         <f>IFERROR(VLOOKUP($A26,h_B!$A$2:$F$29,2,FALSE),"")</f>
-        <v>0.56</v>
+        <v>0.52</v>
       </c>
       <c r="C26" s="3" t="str">
         <f>IFERROR(VLOOKUP($A26,h_B!$A$2:$F$29,3,FALSE),"")</f>
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="D26" s="3" t="str">
         <f>IFERROR(VLOOKUP($A26,h_B!$A$2:$F$29,4,FALSE),"")</f>
+        <v>0.51</v>
+      </c>
+      <c r="E26" s="3">
         <v>0.52</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.44</v>
       </c>
       <c r="F26" s="3">
         <f>IFERROR(VLOOKUP($A26,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="M26" s="24"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <f>_xlfn.RANK.AVG(E26,$E$2:$E$29)</f>
+        <v>24.5</v>
+      </c>
+      <c r="L26" s="24"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B27" s="3" t="str">
         <f>IFERROR(VLOOKUP($A27,h_B!$A$2:$F$29,2,FALSE),"")</f>
-        <v>0.52</v>
+        <v>0.57</v>
       </c>
       <c r="C27" s="3" t="str">
         <f>IFERROR(VLOOKUP($A27,h_B!$A$2:$F$29,3,FALSE),"")</f>
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="D27" s="3" t="str">
         <f>IFERROR(VLOOKUP($A27,h_B!$A$2:$F$29,4,FALSE),"")</f>
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="E27" s="3">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="F27" s="3">
         <f>IFERROR(VLOOKUP($A27,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="0"/>
-        <v>24.5</v>
-      </c>
-      <c r="M27" s="24"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <f>_xlfn.RANK.AVG(E27,$E$2:$E$29)</f>
+        <v>26.5</v>
+      </c>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
@@ -2804,42 +2810,42 @@
       </c>
       <c r="F28" s="3">
         <f>IFERROR(VLOOKUP($A28,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E28,$E$2:$E$29)</f>
         <v>26.5</v>
       </c>
-      <c r="M28" s="24"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B29" s="3" t="str">
         <f>IFERROR(VLOOKUP($A29,h_B!$A$2:$F$29,2,FALSE),"")</f>
-        <v>NA</v>
+        <v>0.56</v>
       </c>
       <c r="C29" s="3" t="str">
         <f>IFERROR(VLOOKUP($A29,h_B!$A$2:$F$29,3,FALSE),"")</f>
-        <v>NA</v>
+        <v>0.52</v>
       </c>
       <c r="D29" s="3" t="str">
         <f>IFERROR(VLOOKUP($A29,h_B!$A$2:$F$29,4,FALSE),"")</f>
-        <v>NA</v>
+        <v>0.52</v>
       </c>
       <c r="E29" s="3">
-        <v>0.70743</v>
-      </c>
-      <c r="F29" s="3" t="str">
+        <v>0.44</v>
+      </c>
+      <c r="F29" s="3">
         <f>IFERROR(VLOOKUP($A29,h_B!$A$2:$F$29,6,FALSE),"")</f>
-        <v>NA</v>
+        <v>0.02</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M29" s="24"/>
+        <f>_xlfn.RANK.AVG(E29,$E$2:$E$29)</f>
+        <v>28</v>
+      </c>
+      <c r="L29" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2851,8 +2857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2889,10 +2895,10 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2901,18 +2907,18 @@
       <c r="E2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="22">
-        <v>0.23</v>
+      <c r="F2" s="3">
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2921,18 +2927,18 @@
       <c r="E3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="22">
-        <v>0.32</v>
+      <c r="F3" s="3">
+        <v>0.26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2941,7 +2947,7 @@
       <c r="E4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="3">
         <v>0.18</v>
       </c>
     </row>
@@ -2949,10 +2955,10 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2961,18 +2967,18 @@
       <c r="E5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="22">
-        <v>0.13</v>
+      <c r="F5" s="3">
+        <v>0.08</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2981,18 +2987,18 @@
       <c r="E6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="22">
-        <v>0.08</v>
+      <c r="F6" s="3">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -3001,18 +3007,18 @@
       <c r="E7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="22">
-        <v>0.06</v>
+      <c r="F7" s="3">
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -3021,18 +3027,18 @@
       <c r="E8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="22">
-        <v>7.0000000000000007E-2</v>
+      <c r="F8" s="3">
+        <v>0.06</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -3041,18 +3047,18 @@
       <c r="E9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="22">
-        <v>0.21</v>
+      <c r="F9" s="3">
+        <v>0.13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -3061,18 +3067,18 @@
       <c r="E10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="22">
-        <v>0.13</v>
+      <c r="F10" s="3">
+        <v>0.11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -3081,18 +3087,18 @@
       <c r="E11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="22">
-        <v>0.06</v>
+      <c r="F11" s="3">
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -3101,7 +3107,7 @@
       <c r="E12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="3">
         <v>0.04</v>
       </c>
     </row>
@@ -3109,10 +3115,10 @@
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -3121,18 +3127,18 @@
       <c r="E13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="22">
-        <v>7.0000000000000007E-2</v>
+      <c r="F13" s="3">
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -3141,18 +3147,18 @@
       <c r="E14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="22">
-        <v>0.05</v>
+      <c r="F14" s="3">
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -3161,18 +3167,18 @@
       <c r="E15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="22">
-        <v>0.54</v>
+      <c r="F15" s="3">
+        <v>0.42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -3181,18 +3187,18 @@
       <c r="E16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="22">
-        <v>0.12</v>
+      <c r="F16" s="3">
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -3201,18 +3207,18 @@
       <c r="E17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="22">
-        <v>0.03</v>
+      <c r="F17" s="3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -3221,18 +3227,18 @@
       <c r="E18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="22">
-        <v>0.06</v>
+      <c r="F18" s="3">
+        <v>0.04</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -3241,18 +3247,18 @@
       <c r="E19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="22">
-        <v>0.16</v>
+      <c r="F19" s="3">
+        <v>0.11</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -3261,18 +3267,18 @@
       <c r="E20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="22">
-        <v>0.02</v>
+      <c r="F20" s="3">
+        <v>0.01</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -3281,18 +3287,18 @@
       <c r="E21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="22">
-        <v>0.03</v>
+      <c r="F21" s="3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -3301,18 +3307,18 @@
       <c r="E22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="22">
-        <v>0.03</v>
+      <c r="F22" s="3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -3321,18 +3327,18 @@
       <c r="E23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="22">
-        <v>0.05</v>
+      <c r="F23" s="3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -3341,58 +3347,58 @@
       <c r="E24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="22">
-        <v>0.02</v>
+      <c r="F24" s="3">
+        <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="22">
-        <v>0.03</v>
+        <v>86</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="22">
-        <v>0.03</v>
+        <v>85</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -3401,7 +3407,7 @@
       <c r="E27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="3">
         <v>0.02</v>
       </c>
     </row>
@@ -3409,10 +3415,10 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -3421,8 +3427,8 @@
       <c r="E28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="22">
-        <v>0.03</v>
+      <c r="F28" s="3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3543,8 +3549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3605,7 +3611,7 @@
         <v>0.06</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G28" si="0">_xlfn.RANK.AVG(E2,$E$2:$E$28)</f>
+        <f>_xlfn.RANK.AVG(E2,$E$2:$E$28)</f>
         <v>1</v>
       </c>
     </row>
@@ -3630,10 +3636,10 @@
       </c>
       <c r="F3" s="6" t="str">
         <f>IFERROR(VLOOKUP($A3,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E3,$E$2:$E$28)</f>
         <v>2.5</v>
       </c>
     </row>
@@ -3658,67 +3664,67 @@
       </c>
       <c r="F4" s="6" t="str">
         <f>IFERROR(VLOOKUP($A4,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E4,$E$2:$E$28)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>46</v>
+      <c r="A5" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B5" s="6" t="str">
         <f>IFERROR(VLOOKUP($A5,h_IBM!$A$2:$F$28,2,FALSE),"")</f>
-        <v>0.88</v>
+        <v>NA</v>
       </c>
       <c r="C5" s="6" t="str">
         <f>IFERROR(VLOOKUP($A5,h_IBM!$A$2:$F$28,3,FALSE),"")</f>
-        <v>0.66</v>
+        <v>NA</v>
       </c>
       <c r="D5" s="6" t="str">
         <f>IFERROR(VLOOKUP($A5,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
-        <v>0.66</v>
+        <v>NA</v>
       </c>
       <c r="E5" s="26">
-        <v>0.86</v>
+        <v>0.86282999999999999</v>
       </c>
       <c r="F5" s="6" t="str">
         <f>IFERROR(VLOOKUP($A5,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.41</v>
+        <v>NA</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>_xlfn.RANK.AVG(E5,$E$2:$E$28)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>62</v>
+      <c r="A6" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B6" s="6" t="str">
         <f>IFERROR(VLOOKUP($A6,h_IBM!$A$2:$F$28,2,FALSE),"")</f>
-        <v>NA</v>
+        <v>0.88</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>IFERROR(VLOOKUP($A6,h_IBM!$A$2:$F$28,3,FALSE),"")</f>
-        <v>NA</v>
+        <v>0.66</v>
       </c>
       <c r="D6" s="6" t="str">
         <f>IFERROR(VLOOKUP($A6,h_IBM!$A$2:$F$28,4,FALSE),"")</f>
-        <v>NA</v>
+        <v>0.66</v>
       </c>
       <c r="E6" s="26">
-        <v>0.86282999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F6" s="6" t="str">
         <f>IFERROR(VLOOKUP($A6,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>NA</v>
+        <v>0.33</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>_xlfn.RANK.AVG(E6,$E$2:$E$28)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3742,10 +3748,10 @@
       </c>
       <c r="F7" s="6" t="str">
         <f>IFERROR(VLOOKUP($A7,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.10</v>
+        <v>0.03</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E7,$E$2:$E$28)</f>
         <v>7.5</v>
       </c>
     </row>
@@ -3770,10 +3776,10 @@
       </c>
       <c r="F8" s="6" t="str">
         <f>IFERROR(VLOOKUP($A8,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E8,$E$2:$E$28)</f>
         <v>7.5</v>
       </c>
     </row>
@@ -3798,10 +3804,10 @@
       </c>
       <c r="F9" s="6" t="str">
         <f>IFERROR(VLOOKUP($A9,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E9,$E$2:$E$28)</f>
         <v>7.5</v>
       </c>
     </row>
@@ -3829,7 +3835,7 @@
         <v>0.14</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E10,$E$2:$E$28)</f>
         <v>7.5</v>
       </c>
     </row>
@@ -3854,10 +3860,10 @@
       </c>
       <c r="F11" s="6" t="str">
         <f>IFERROR(VLOOKUP($A11,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E11,$E$2:$E$28)</f>
         <v>11.5</v>
       </c>
     </row>
@@ -3885,7 +3891,7 @@
         <v>0.04</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E12,$E$2:$E$28)</f>
         <v>11.5</v>
       </c>
     </row>
@@ -3910,10 +3916,10 @@
       </c>
       <c r="F13" s="6" t="str">
         <f>IFERROR(VLOOKUP($A13,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.07</v>
+        <v>0.03</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E13,$E$2:$E$28)</f>
         <v>11.5</v>
       </c>
     </row>
@@ -3938,10 +3944,10 @@
       </c>
       <c r="F14" s="6" t="str">
         <f>IFERROR(VLOOKUP($A14,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E14,$E$2:$E$28)</f>
         <v>11.5</v>
       </c>
     </row>
@@ -3966,10 +3972,10 @@
       </c>
       <c r="F15" s="6" t="str">
         <f>IFERROR(VLOOKUP($A15,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.23</v>
+        <v>0.20</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E15,$E$2:$E$28)</f>
         <v>14</v>
       </c>
     </row>
@@ -3994,10 +4000,10 @@
       </c>
       <c r="F16" s="6" t="str">
         <f>IFERROR(VLOOKUP($A16,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E16,$E$2:$E$28)</f>
         <v>16.5</v>
       </c>
     </row>
@@ -4022,10 +4028,10 @@
       </c>
       <c r="F17" s="6" t="str">
         <f>IFERROR(VLOOKUP($A17,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.10</v>
+        <v>0.08</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E17,$E$2:$E$28)</f>
         <v>16.5</v>
       </c>
     </row>
@@ -4050,10 +4056,10 @@
       </c>
       <c r="F18" s="6" t="str">
         <f>IFERROR(VLOOKUP($A18,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E18,$E$2:$E$28)</f>
         <v>16.5</v>
       </c>
     </row>
@@ -4078,10 +4084,10 @@
       </c>
       <c r="F19" s="6" t="str">
         <f>IFERROR(VLOOKUP($A19,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E19,$E$2:$E$28)</f>
         <v>16.5</v>
       </c>
     </row>
@@ -4106,10 +4112,10 @@
       </c>
       <c r="F20" s="6" t="str">
         <f>IFERROR(VLOOKUP($A20,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E20,$E$2:$E$28)</f>
         <v>19</v>
       </c>
     </row>
@@ -4134,10 +4140,10 @@
       </c>
       <c r="F21" s="6" t="str">
         <f>IFERROR(VLOOKUP($A21,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E21,$E$2:$E$28)</f>
         <v>20</v>
       </c>
     </row>
@@ -4162,10 +4168,10 @@
       </c>
       <c r="F22" s="6" t="str">
         <f>IFERROR(VLOOKUP($A22,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E22,$E$2:$E$28)</f>
         <v>21</v>
       </c>
     </row>
@@ -4190,10 +4196,10 @@
       </c>
       <c r="F23" s="6" t="str">
         <f>IFERROR(VLOOKUP($A23,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E23,$E$2:$E$28)</f>
         <v>22.5</v>
       </c>
     </row>
@@ -4218,10 +4224,10 @@
       </c>
       <c r="F24" s="6" t="str">
         <f>IFERROR(VLOOKUP($A24,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.10</v>
+        <v>0.09</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E24,$E$2:$E$28)</f>
         <v>22.5</v>
       </c>
     </row>
@@ -4246,10 +4252,10 @@
       </c>
       <c r="F25" s="6" t="str">
         <f>IFERROR(VLOOKUP($A25,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E25,$E$2:$E$28)</f>
         <v>24</v>
       </c>
     </row>
@@ -4277,7 +4283,7 @@
         <v>0.02</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E26,$E$2:$E$28)</f>
         <v>25.5</v>
       </c>
     </row>
@@ -4302,10 +4308,10 @@
       </c>
       <c r="F27" s="6" t="str">
         <f>IFERROR(VLOOKUP($A27,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E27,$E$2:$E$28)</f>
         <v>25.5</v>
       </c>
     </row>
@@ -4315,7 +4321,7 @@
       </c>
       <c r="B28" s="6" t="str">
         <f>IFERROR(VLOOKUP($A28,h_IBM!$A$2:$F$28,2,FALSE),"")</f>
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="C28" s="6" t="str">
         <f>IFERROR(VLOOKUP($A28,h_IBM!$A$2:$F$28,3,FALSE),"")</f>
@@ -4326,14 +4332,14 @@
         <v>0.55</v>
       </c>
       <c r="E28" s="26">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F28" s="6" t="str">
         <f>IFERROR(VLOOKUP($A28,h_IBM!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E28,$E$2:$E$28)</f>
         <v>27</v>
       </c>
     </row>
@@ -4353,18 +4359,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.77734375" bestFit="1" customWidth="1"/>
@@ -4374,19 +4380,19 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4394,59 +4400,59 @@
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>118</v>
+      <c r="F2" s="22" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>91</v>
+      <c r="F3" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4454,19 +4460,19 @@
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4474,39 +4480,39 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>91</v>
+      <c r="E6" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4514,279 +4520,279 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>96</v>
+      <c r="E8" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>119</v>
+      <c r="E9" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>96</v>
+      <c r="F10" s="22" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>89</v>
+      <c r="E11" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>120</v>
+      <c r="F12" s="22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>89</v>
+      <c r="E13" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>121</v>
+      <c r="E14" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>93</v>
+      <c r="E15" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>92</v>
+      <c r="E16" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>118</v>
+      <c r="E17" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>94</v>
+      <c r="E18" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>88</v>
+      <c r="E19" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>93</v>
+      <c r="E20" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4794,99 +4800,99 @@
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>90</v>
+      <c r="B22" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>122</v>
+      <c r="B23" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>90</v>
+      <c r="F24" s="22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>118</v>
+      <c r="F25" s="22" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="E26" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4894,19 +4900,19 @@
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E27" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4914,25 +4920,21 @@
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="22">
         <v>0.86282999999999999</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
@@ -5022,10 +5024,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5039,7 +5041,7 @@
     <col min="7" max="7" width="17" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5062,7 +5064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
@@ -5079,7 +5081,6 @@
         <v>NA</v>
       </c>
       <c r="E2" s="15">
-        <f>IFERROR(VLOOKUP($A2,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.76966999999999997</v>
       </c>
       <c r="F2" s="16" t="str">
@@ -5087,779 +5088,779 @@
         <v>NA</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G28" si="0">_xlfn.RANK.AVG(E2,$E$2:$E$28)</f>
+        <f>_xlfn.RANK.AVG(E2,$E$2:$E$28)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="str">
         <f>IFERROR(VLOOKUP($A3,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.76</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="str">
         <f>IFERROR(VLOOKUP($A3,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.67</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="str">
         <f>IFERROR(VLOOKUP($A3,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.67</v>
       </c>
       <c r="E3" s="15">
-        <f>IFERROR(VLOOKUP($A3,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.76</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="16" t="str">
         <f>IFERROR(VLOOKUP($A3,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E3,$E$2:$E$28)</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="str">
         <f>IFERROR(VLOOKUP($A4,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.77</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="str">
         <f>IFERROR(VLOOKUP($A4,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.66</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="str">
         <f>IFERROR(VLOOKUP($A4,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.66</v>
       </c>
       <c r="E4" s="15">
-        <f>IFERROR(VLOOKUP($A4,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.76</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="16" t="str">
         <f>IFERROR(VLOOKUP($A4,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.63</v>
+        <v>0.46</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E4,$E$2:$E$28)</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="str">
         <f>IFERROR(VLOOKUP($A5,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.77</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="str">
         <f>IFERROR(VLOOKUP($A5,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.66</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="str">
         <f>IFERROR(VLOOKUP($A5,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.66</v>
       </c>
       <c r="E5" s="15">
-        <f>IFERROR(VLOOKUP($A5,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.76</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="16" t="str">
         <f>IFERROR(VLOOKUP($A5,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>2.84</v>
+        <v>2.54</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E5,$E$2:$E$28)</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="str">
         <f>IFERROR(VLOOKUP($A6,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.77</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="str">
         <f>IFERROR(VLOOKUP($A6,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.65</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="str">
         <f>IFERROR(VLOOKUP($A6,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.65</v>
       </c>
       <c r="E6" s="15">
-        <f>IFERROR(VLOOKUP($A6,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.76</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="16" t="str">
         <f>IFERROR(VLOOKUP($A6,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E6,$E$2:$E$28)</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="str">
         <f>IFERROR(VLOOKUP($A7,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.78</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="2" t="str">
         <f>IFERROR(VLOOKUP($A7,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.65</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="str">
         <f>IFERROR(VLOOKUP($A7,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.65</v>
       </c>
       <c r="E7" s="15">
-        <f>IFERROR(VLOOKUP($A7,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.76</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="16" t="str">
         <f>IFERROR(VLOOKUP($A7,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>29.76</v>
+        <v>31.98</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E7,$E$2:$E$28)</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="str">
         <f>IFERROR(VLOOKUP($A8,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.77</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="2" t="str">
         <f>IFERROR(VLOOKUP($A8,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.65</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="str">
         <f>IFERROR(VLOOKUP($A8,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.65</v>
       </c>
       <c r="E8" s="15">
-        <f>IFERROR(VLOOKUP($A8,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.76</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="16" t="str">
         <f>IFERROR(VLOOKUP($A8,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>5.32</v>
+        <v>4.88</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E8,$E$2:$E$28)</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="str">
         <f>IFERROR(VLOOKUP($A9,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.75</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="2" t="str">
         <f>IFERROR(VLOOKUP($A9,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.69</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="str">
         <f>IFERROR(VLOOKUP($A9,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.69</v>
       </c>
       <c r="E9" s="15">
-        <f>IFERROR(VLOOKUP($A9,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.75</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="16" t="str">
         <f>IFERROR(VLOOKUP($A9,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E9,$E$2:$E$28)</f>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="str">
         <f>IFERROR(VLOOKUP($A10,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.77</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="2" t="str">
         <f>IFERROR(VLOOKUP($A10,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.64</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="str">
         <f>IFERROR(VLOOKUP($A10,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.64</v>
       </c>
       <c r="E10" s="15">
-        <f>IFERROR(VLOOKUP($A10,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.75</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="16" t="str">
         <f>IFERROR(VLOOKUP($A10,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E10,$E$2:$E$28)</f>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="str">
         <f>IFERROR(VLOOKUP($A11,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.77</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="2" t="str">
         <f>IFERROR(VLOOKUP($A11,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.64</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="str">
         <f>IFERROR(VLOOKUP($A11,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.64</v>
       </c>
       <c r="E11" s="15">
-        <f>IFERROR(VLOOKUP($A11,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.75</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="16" t="str">
         <f>IFERROR(VLOOKUP($A11,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E11,$E$2:$E$28)</f>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="str">
         <f>IFERROR(VLOOKUP($A12,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.76</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="2" t="str">
         <f>IFERROR(VLOOKUP($A12,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.63</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="str">
         <f>IFERROR(VLOOKUP($A12,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.63</v>
       </c>
       <c r="E12" s="15">
-        <f>IFERROR(VLOOKUP($A12,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.75</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="16" t="str">
         <f>IFERROR(VLOOKUP($A12,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.56000000000000005</v>
+        <v>0.50</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E12,$E$2:$E$28)</f>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="str">
         <f>IFERROR(VLOOKUP($A13,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.75</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="2" t="str">
         <f>IFERROR(VLOOKUP($A13,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.62</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="str">
         <f>IFERROR(VLOOKUP($A13,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.62</v>
       </c>
       <c r="E13" s="15">
-        <f>IFERROR(VLOOKUP($A13,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.74</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="16" t="str">
         <f>IFERROR(VLOOKUP($A13,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>13.97</v>
+        <v>14.05</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E13,$E$2:$E$28)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="str">
         <f>IFERROR(VLOOKUP($A14,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.77</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="2" t="str">
         <f>IFERROR(VLOOKUP($A14,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.62</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="str">
         <f>IFERROR(VLOOKUP($A14,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.62</v>
       </c>
       <c r="E14" s="15">
-        <f>IFERROR(VLOOKUP($A14,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.74</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="16" t="str">
         <f>IFERROR(VLOOKUP($A14,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>21.22</v>
+        <v>19.65</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E14,$E$2:$E$28)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="2" t="str">
         <f>IFERROR(VLOOKUP($A15,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.77</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="2" t="str">
         <f>IFERROR(VLOOKUP($A15,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.61</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="str">
         <f>IFERROR(VLOOKUP($A15,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.61</v>
       </c>
       <c r="E15" s="15">
-        <f>IFERROR(VLOOKUP($A15,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.74</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="16" t="str">
         <f>IFERROR(VLOOKUP($A15,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E15,$E$2:$E$28)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="str">
         <f>IFERROR(VLOOKUP($A16,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.74</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="2" t="str">
         <f>IFERROR(VLOOKUP($A16,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.64</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2" t="str">
         <f>IFERROR(VLOOKUP($A16,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.64</v>
       </c>
       <c r="E16" s="15">
-        <f>IFERROR(VLOOKUP($A16,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.73</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="16" t="str">
         <f>IFERROR(VLOOKUP($A16,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>11.99</v>
+        <v>9.56</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E16,$E$2:$E$28)</f>
         <v>16.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="2" t="str">
         <f>IFERROR(VLOOKUP($A17,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.74</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="2" t="str">
         <f>IFERROR(VLOOKUP($A17,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.64</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="2" t="str">
         <f>IFERROR(VLOOKUP($A17,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.64</v>
       </c>
       <c r="E17" s="15">
-        <f>IFERROR(VLOOKUP($A17,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.73</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="16" t="str">
         <f>IFERROR(VLOOKUP($A17,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>8.76</v>
+        <v>7.28</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E17,$E$2:$E$28)</f>
         <v>16.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="str">
         <f>IFERROR(VLOOKUP($A18,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.74</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="2" t="str">
         <f>IFERROR(VLOOKUP($A18,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.63</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="2" t="str">
         <f>IFERROR(VLOOKUP($A18,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.63</v>
       </c>
       <c r="E18" s="15">
-        <f>IFERROR(VLOOKUP($A18,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.73</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="16" t="str">
         <f>IFERROR(VLOOKUP($A18,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.28000000000000003</v>
+        <v>0.19</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E18,$E$2:$E$28)</f>
         <v>16.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="str">
         <f>IFERROR(VLOOKUP($A19,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.76</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="2" t="str">
         <f>IFERROR(VLOOKUP($A19,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
-        <v>0.6</v>
-      </c>
-      <c r="D19" s="2">
+        <v>0.60</v>
+      </c>
+      <c r="D19" s="2" t="str">
         <f>IFERROR(VLOOKUP($A19,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
-        <v>0.6</v>
+        <v>0.60</v>
       </c>
       <c r="E19" s="15">
-        <f>IFERROR(VLOOKUP($A19,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.73</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="16" t="str">
         <f>IFERROR(VLOOKUP($A19,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E19,$E$2:$E$28)</f>
         <v>16.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="str">
         <f>IFERROR(VLOOKUP($A20,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.72</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="2" t="str">
         <f>IFERROR(VLOOKUP($A20,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.62</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="2" t="str">
         <f>IFERROR(VLOOKUP($A20,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.62</v>
       </c>
       <c r="E20" s="15">
-        <f>IFERROR(VLOOKUP($A20,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.72</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="16" t="str">
         <f>IFERROR(VLOOKUP($A20,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E20,$E$2:$E$28)</f>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="str">
         <f>IFERROR(VLOOKUP($A21,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.73</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="2" t="str">
         <f>IFERROR(VLOOKUP($A21,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.61</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="2" t="str">
         <f>IFERROR(VLOOKUP($A21,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.61</v>
       </c>
       <c r="E21" s="15">
-        <f>IFERROR(VLOOKUP($A21,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.72</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="16" t="str">
         <f>IFERROR(VLOOKUP($A21,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>2.39</v>
+        <v>2.16</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E21,$E$2:$E$28)</f>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="str">
         <f>IFERROR(VLOOKUP($A22,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.72</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="2" t="str">
         <f>IFERROR(VLOOKUP($A22,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.62</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="2" t="str">
         <f>IFERROR(VLOOKUP($A22,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.62</v>
       </c>
       <c r="E22" s="15">
-        <f>IFERROR(VLOOKUP($A22,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.71</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="16" t="str">
         <f>IFERROR(VLOOKUP($A22,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>2.9</v>
+        <v>2.54</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E22,$E$2:$E$28)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="2" t="str">
         <f>IFERROR(VLOOKUP($A23,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
-        <v>0.7</v>
-      </c>
-      <c r="C23" s="2">
+        <v>0.70</v>
+      </c>
+      <c r="C23" s="2" t="str">
         <f>IFERROR(VLOOKUP($A23,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.61</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="2" t="str">
         <f>IFERROR(VLOOKUP($A23,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.61</v>
       </c>
       <c r="E23" s="15">
-        <f>IFERROR(VLOOKUP($A23,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.71</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="16" t="str">
         <f>IFERROR(VLOOKUP($A23,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.13</v>
+        <v>0.10</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E23,$E$2:$E$28)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="str">
         <f>IFERROR(VLOOKUP($A24,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.72</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="2" t="str">
         <f>IFERROR(VLOOKUP($A24,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.59</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="2" t="str">
         <f>IFERROR(VLOOKUP($A24,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.59</v>
       </c>
       <c r="E24" s="15">
-        <f>IFERROR(VLOOKUP($A24,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.71</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="16" t="str">
         <f>IFERROR(VLOOKUP($A24,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E24,$E$2:$E$28)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="str">
         <f>IFERROR(VLOOKUP($A25,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
-        <v>0.7</v>
-      </c>
-      <c r="C25" s="2">
+        <v>0.70</v>
+      </c>
+      <c r="C25" s="2" t="str">
         <f>IFERROR(VLOOKUP($A25,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.61</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="2" t="str">
         <f>IFERROR(VLOOKUP($A25,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.61</v>
       </c>
       <c r="E25" s="15">
-        <f>IFERROR(VLOOKUP($A25,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.7</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="16" t="str">
         <f>IFERROR(VLOOKUP($A25,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E25,$E$2:$E$28)</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="str">
         <f>IFERROR(VLOOKUP($A26,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.63</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="2" t="str">
         <f>IFERROR(VLOOKUP($A26,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="2">
+        <v>0.50</v>
+      </c>
+      <c r="D26" s="2" t="str">
         <f>IFERROR(VLOOKUP($A26,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="E26" s="15">
-        <f>IFERROR(VLOOKUP($A26,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.63</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="16" t="str">
         <f>IFERROR(VLOOKUP($A26,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E26,$E$2:$E$28)</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="2" t="str">
         <f>IFERROR(VLOOKUP($A27,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
-        <v>0.35</v>
-      </c>
-      <c r="C27" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="C27" s="2" t="str">
         <f>IFERROR(VLOOKUP($A27,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
-        <v>0.53</v>
-      </c>
-      <c r="D27" s="2">
+        <v>0.55</v>
+      </c>
+      <c r="D27" s="2" t="str">
         <f>IFERROR(VLOOKUP($A27,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="E27" s="15">
-        <f>IFERROR(VLOOKUP($A27,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
-        <v>0.32</v>
-      </c>
-      <c r="F27" s="16">
+        <v>0.38</v>
+      </c>
+      <c r="F27" s="16" t="str">
         <f>IFERROR(VLOOKUP($A27,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.39</v>
+        <v>0.27</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E27,$E$2:$E$28)</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="str">
         <f>IFERROR(VLOOKUP($A28,h_HRA!$A$2:$F$28,2,FALSE),"")</f>
         <v>0.31</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="2" t="str">
         <f>IFERROR(VLOOKUP($A28,h_HRA!$A$2:$F$28,3,FALSE),"")</f>
         <v>0.53</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="2" t="str">
         <f>IFERROR(VLOOKUP($A28,h_HRA!$A$2:$F$28,4,FALSE),"")</f>
         <v>0.53</v>
       </c>
       <c r="E28" s="15">
-        <f>IFERROR(VLOOKUP($A28,h_HRA!$A$2:$F$28,5,FALSE),"")</f>
         <v>0.23</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="16" t="str">
         <f>IFERROR(VLOOKUP($A28,h_HRA!$A$2:$F$28,6,FALSE),"")</f>
-        <v>0.12</v>
+        <v>0.10</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="0"/>
+        <f>_xlfn.RANK.AVG(E28,$E$2:$E$28)</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E29" s="15"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="E32" s="15"/>
       <c r="F32" s="16"/>
@@ -5993,18 +5994,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.77734375" bestFit="1" customWidth="1"/>
@@ -6014,19 +6015,19 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6034,539 +6035,539 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.21</v>
+      <c r="B2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.14000000000000001</v>
+      <c r="B3" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.63</v>
+      <c r="B4" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2.84</v>
+      <c r="B5" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.5</v>
+      <c r="B6" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="F7" s="2">
-        <v>29.76</v>
+      <c r="B7" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5.32</v>
+      <c r="B8" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.24</v>
+      <c r="B9" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.38</v>
+      <c r="B10" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="F11" s="2">
-        <v>11.99</v>
+      <c r="B11" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="F12" s="2">
-        <v>8.76</v>
+      <c r="B12" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.56000000000000005</v>
+      <c r="B13" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.28000000000000003</v>
+      <c r="B14" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="F15" s="2">
-        <v>13.97</v>
+      <c r="B15" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="F16" s="2">
-        <v>21.22</v>
+      <c r="B16" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2.9</v>
+      <c r="B17" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.75</v>
+      <c r="B18" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2.39</v>
+      <c r="B19" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.13</v>
+      <c r="B20" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.33</v>
+      <c r="B21" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.18</v>
+      <c r="B22" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1.05</v>
+      <c r="B23" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.22</v>
+      <c r="B24" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.12</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.39</v>
+        <v>16</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.1</v>
+      <c r="B27" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="22" t="s">
         <v>63</v>
       </c>
       <c r="E28" s="22">
         <v>0.76966999999999997</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="22" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6653,5 +6654,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>